--- a/GUI + Reviews/202509/EUSPT.xlsx
+++ b/GUI + Reviews/202509/EUSPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8954DFE-54BE-47C6-892A-2B9C1F605EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F2953E-2E53-4EA2-B834-37C844DD2284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C9D119-84C5-4824-A208-4687AE18EF1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54BC5A67-359E-4F0F-AA8C-70F93A70E250}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13157,22 +13157,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5043A7C3-3B98-4AD3-A837-A4D117DAC169}" name="Universe" displayName="Universe" ref="A1:M1419" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M1419" xr:uid="{5043A7C3-3B98-4AD3-A837-A4D117DAC169}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6590381D-BCF0-4DAA-8FC3-E41A1DBEC2E5}" name="Universe" displayName="Universe" ref="A1:M1419" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:M1419" xr:uid="{6590381D-BCF0-4DAA-8FC3-E41A1DBEC2E5}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{832F7DC4-06A7-480C-A0AB-D396E6DBBFB9}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{C0632217-2BE5-4F7B-A52C-87F1F40AFA52}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1140BB70-A8F4-4D76-922B-F228B1E8CF63}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{4509E797-1E8C-41B7-B1FF-E049A22DB616}" name="MIC" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{27939147-889C-4121-A82F-3BAFA80B3355}" name="Currency (Local)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{12FAABAC-4E67-4F4C-A455-E6E3650460BF}" name="Price (EUR) " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{08A7D65C-483B-419D-8E5B-909988685BB2}" name="NOSH" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{CC4BEA67-DC20-4727-9DC1-573BCE442D84}" name="20 days AVG turnover EUR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{A6BD1DF5-5F33-4C6E-9447-FDBFED29B98C}" name="3M AVG Turnover EUR" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{02E1B01F-9379-43E3-B69B-2F3F38F6FCB6}" name="3M AVG Turnover USD" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{370E4AA1-7438-4491-AD19-F200D7296A5B}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{1DF5D030-F02E-463E-A263-8104338B218D}" name="6M AVG Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{727832DA-69E0-4D39-A536-1906A7AA19CF}" name="12M AVG Turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{72E586FC-38DD-4F89-9D0D-1902F9134355}" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E8D96276-1906-4F41-ABE8-402676326B72}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{174D5C8D-D1A6-4D21-B5FC-DA419D7604CC}" name="ISIN" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0882C5F3-F871-4F3F-AB37-5C5FF3941CCC}" name="MIC" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{73F9BEAE-1D82-440D-88DF-B8F544818EE0}" name="Currency (Local)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{555038A2-D594-4C24-AAFE-84FCCECD245C}" name="Price (EUR) " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{08D3BD98-F308-4380-809E-E7F475548D61}" name="NOSH" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{22C18E54-9B96-4AB5-A088-66B58C06ECA9}" name="20 days AVG turnover EUR" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{3CB7EF78-51EB-4495-A62A-BB1E38E31E50}" name="3M AVG Turnover EUR" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{F8E85772-FCBF-408D-9518-15CB4531E5E8}" name="3M AVG Turnover USD" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{21E1AE77-4D7A-41BB-9DEA-3C6100E3AFD5}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{54D1F8E4-477C-4BD9-9ACE-D7AAAE0CC955}" name="6M AVG Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{790C51AA-DE2B-4EA0-AD62-402CFB5A4C37}" name="12M AVG Turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13494,7 +13494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F726BF2E-0594-4A5A-8813-01CD61B7B9C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAB9CAC-55C6-4893-95F2-C77EA2D8FF88}">
   <dimension ref="A1:M1419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -46131,7 +46131,7 @@
         <v>1.732378</v>
       </c>
       <c r="G796" s="1">
-        <v>307249490</v>
+        <v>3072494900</v>
       </c>
       <c r="H796" s="1">
         <v>149100016.862151</v>

--- a/GUI + Reviews/202509/EUSPT.xlsx
+++ b/GUI + Reviews/202509/EUSPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202509\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202509/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F2953E-2E53-4EA2-B834-37C844DD2284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C2F2953E-2E53-4EA2-B834-37C844DD2284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B47BA22-EECC-4D0A-97F8-B9B3099F15C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54BC5A67-359E-4F0F-AA8C-70F93A70E250}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{54BC5A67-359E-4F0F-AA8C-70F93A70E250}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13157,22 +13157,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6590381D-BCF0-4DAA-8FC3-E41A1DBEC2E5}" name="Universe" displayName="Universe" ref="A1:M1419" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6590381D-BCF0-4DAA-8FC3-E41A1DBEC2E5}" name="Universe" displayName="Universe" ref="A1:M1419" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M1419" xr:uid="{6590381D-BCF0-4DAA-8FC3-E41A1DBEC2E5}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{72E586FC-38DD-4F89-9D0D-1902F9134355}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E8D96276-1906-4F41-ABE8-402676326B72}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{174D5C8D-D1A6-4D21-B5FC-DA419D7604CC}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0882C5F3-F871-4F3F-AB37-5C5FF3941CCC}" name="MIC" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{73F9BEAE-1D82-440D-88DF-B8F544818EE0}" name="Currency (Local)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{555038A2-D594-4C24-AAFE-84FCCECD245C}" name="Price (EUR) " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{08D3BD98-F308-4380-809E-E7F475548D61}" name="NOSH" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{22C18E54-9B96-4AB5-A088-66B58C06ECA9}" name="20 days AVG turnover EUR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{3CB7EF78-51EB-4495-A62A-BB1E38E31E50}" name="3M AVG Turnover EUR" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{F8E85772-FCBF-408D-9518-15CB4531E5E8}" name="3M AVG Turnover USD" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{21E1AE77-4D7A-41BB-9DEA-3C6100E3AFD5}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{54D1F8E4-477C-4BD9-9ACE-D7AAAE0CC955}" name="6M AVG Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{790C51AA-DE2B-4EA0-AD62-402CFB5A4C37}" name="12M AVG Turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{72E586FC-38DD-4F89-9D0D-1902F9134355}" name="Name" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E8D96276-1906-4F41-ABE8-402676326B72}" name="Ticker" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{174D5C8D-D1A6-4D21-B5FC-DA419D7604CC}" name="ISIN" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{0882C5F3-F871-4F3F-AB37-5C5FF3941CCC}" name="MIC" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{73F9BEAE-1D82-440D-88DF-B8F544818EE0}" name="Currency (Local)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{555038A2-D594-4C24-AAFE-84FCCECD245C}" name="Price (EUR) " dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{08D3BD98-F308-4380-809E-E7F475548D61}" name="NOSH" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{22C18E54-9B96-4AB5-A088-66B58C06ECA9}" name="20 days AVG turnover EUR" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3CB7EF78-51EB-4495-A62A-BB1E38E31E50}" name="3M AVG Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{F8E85772-FCBF-408D-9518-15CB4531E5E8}" name="3M AVG Turnover USD" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{21E1AE77-4D7A-41BB-9DEA-3C6100E3AFD5}" name="100 Trading Days AVG Turnover EUR" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{54D1F8E4-477C-4BD9-9ACE-D7AAAE0CC955}" name="6M AVG Turnover EUR" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{790C51AA-DE2B-4EA0-AD62-402CFB5A4C37}" name="12M AVG Turnover EUR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13497,7 +13497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAB9CAC-55C6-4893-95F2-C77EA2D8FF88}">
   <dimension ref="A1:M1419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -71697,11 +71699,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>